--- a/registro.xlsx
+++ b/registro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,85 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>--- Actualización: 2025-10-14 20:17:44 ---</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TTV 004E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54533</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-10-14 18:41:42</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SUCLUPE VALDERA JUAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-10-14 18:33:51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-14 20:17:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registro.xlsx
+++ b/registro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,158 +424,6368 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>--- Actualización: 2025-10-14 17:11:21 ---</t>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>codMaquina</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idNumOrd</t>
-        </is>
+          <t>TAM 001E</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55288</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>inicioParada_alex</t>
+          <t>2025-10-15 11:35:09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>desParada</t>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>operario</t>
+          <t>FIGUEROA SALDAÑA RENZO EMILIO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>inicioParada_scada</t>
+          <t>2025-10-15 11:34:11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>finParada_scada</t>
+          <t>2025-10-15 11:45:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PFR 005E</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6380</v>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-10-14 16:17:47</t>
+          <t>inicioParada_alex</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+          <t>desParada</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+          <t>operario</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-14 16:19:27</t>
+          <t>inicioParada_scada</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-10-14 16:43:50</t>
+          <t>finParada_scada</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>--- Actualización: 2025-10-14 20:17:44 ---</t>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-10-15 11:42:39</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-10-15 11:39:46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-10-15 12:27:08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>codMaquina</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>idNumOrd</t>
-        </is>
+          <t>TAM 001E</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55288</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inicioParada_alex</t>
+          <t>2025-10-15 11:35:09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>desParada</t>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>operario</t>
+          <t>FIGUEROA SALDAÑA RENZO EMILIO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>inicioParada_scada</t>
+          <t>2025-10-15 11:34:11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>finParada_scada</t>
+          <t>2025-10-15 11:45:31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TAM 001E</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55288</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-10-15 11:35:09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FIGUEROA SALDAÑA RENZO EMILIO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-10-15 11:34:11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-10-15 11:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TAM 003E</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>55013</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-10-15 12:24:05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FERNANDEZ CASTRO PRESENCIANO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-10-15 12:29:49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-10-15 12:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FAL 007E</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5765</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-10-15 12:27:57</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ESPICHAN VARGAS GISELA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-10-15 07:00:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10-15 13:05:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TAM 001E</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55288</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-10-15 11:35:09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FIGUEROA SALDAÑA RENZO EMILIO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-10-15 07:00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-10-15 13:36:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TAM 001E</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>55288</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-10-15 15:13:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FIGUEROA SALDAÑA RENZO EMILIO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-10-15 15:06:34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-10-15 15:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TAM 001E</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>55288</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-10-15 15:13:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FIGUEROA SALDAÑA RENZO EMILIO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-10-15 15:06:34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-10-15 15:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TTV 001E</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>55296</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-10-15 14:49:11</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-10-15 14:43:29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TTV 001E</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>55296</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-10-15 14:49:11</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-10-15 14:43:29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:13:51</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PESAJE DE P.T. BARRAS, TUBOS, CPO FORJADO, LLAVES, PT INYECCION, TOCHOS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:16:36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:13:51</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PESAJE DE P.T. BARRAS, TUBOS, CPO FORJADO, LLAVES, PT INYECCION, TOCHOS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:16:36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-10-15 18:48:16</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MAYLLE TOLENTINO MANUEL MIGUEL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:39:39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-10-15 19:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-10-15 18:48:16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MAYLLE TOLENTINO MANUEL MIGUEL</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-10-15 16:39:39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-10-15 19:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-10-15 22:12:27</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MAYLLE TOLENTINO MANUEL MIGUEL</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:22:08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-10-15 22:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-10-15 22:12:27</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MAYLLE TOLENTINO MANUEL MIGUEL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:22:08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-10-15 22:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PFR 003E</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6332</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:02:47</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MAYLLE TOLENTINO MANUEL MIGUEL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:02:36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:29:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PFR 003E</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6332</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:02:47</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MAYLLE TOLENTINO MANUEL MIGUEL</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:02:36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:29:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>TTV 004E</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>54533</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-10-14 18:41:42</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B38" t="n">
+        <v>54535</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:16:28</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>SUCLUPE VALDERA JUAN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-10-14 18:33:51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-10-14 20:17:42</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:04:58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TTV 004E</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>54535</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:16:28</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SUCLUPE VALDERA JUAN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:04:58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:07:26</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>GARCIA MORENO EDGAR RAFAEL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:26:41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:07:26</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GARCIA MORENO EDGAR RAFAEL</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:26:41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:07:26</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>GARCIA MORENO EDGAR RAFAEL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:26:41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>55294</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:15:41</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ROQUE NUÑEZ MIGUEL ANGEL</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:16:32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-10-16 03:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:07:26</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GARCIA MORENO EDGAR RAFAEL</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-10-16 01:26:41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>55294</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:15:41</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ROQUE NUÑEZ MIGUEL ANGEL</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-10-16 02:16:32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-10-16 03:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PEM 016E</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:09:20</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>DAVILA CAJO HEBERTH HILDEBRANDO</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-10-16 06:59:44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PEM 016E</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:09:20</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>DAVILA CAJO HEBERTH HILDEBRANDO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-10-16 06:59:44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PEM 016E</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:09:20</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>DAVILA CAJO HEBERTH HILDEBRANDO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-10-16 06:59:44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:17:20</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-10-16 00:39:23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TTV 001E</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>55297</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:38:09</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EXTRACCION, PESAJE DE RETORNO (VIRUTA, DERRAME, CARCASA, ESCORIA, POLVO, PUNTAS, FLEJES, PEPAS, MENUDO, SCRAPP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-10-16 06:19:38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TTV 001E</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>55297</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:38:09</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>EXTRACCION, PESAJE DE RETORNO (VIRUTA, DERRAME, CARCASA, ESCORIA, POLVO, PUNTAS, FLEJES, PEPAS, MENUDO, SCRAPP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-10-16 06:19:38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:20:13</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:14:32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TTV 001E</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>55297</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:38:09</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EXTRACCION, PESAJE DE RETORNO (VIRUTA, DERRAME, CARCASA, ESCORIA, POLVO, PUNTAS, FLEJES, PEPAS, MENUDO, SCRAPP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-10-16 06:19:38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:20:13</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:14:32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PEN 004E</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5754</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:27:51</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>FRANCIS CURASI EMILIO FELIX</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:00:00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PEN 004E</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5754</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:27:51</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>FRANCIS CURASI EMILIO FELIX</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:00:00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-10-16 08:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TTV 004E</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>54535</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-10-16 07:34:43</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TRASLADO DE PRODUCCION A OTRA AREA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SIESQUEN TABOADA EDUARDO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-10-16 05:19:32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-10-16 09:44:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PHE 003E</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5737</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:29:13</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>RUBIO GARCIA LIZ MARIELA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-10-16 11:44:39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:27:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:30:04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PHE 003E</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5737</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:29:13</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>RUBIO GARCIA LIZ MARIELA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-10-16 11:44:39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:25:17</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:23:25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:27:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:30:04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PHE 003E</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5737</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:29:13</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>RUBIO GARCIA LIZ MARIELA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-10-16 11:44:39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TAM 003E</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>54966</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:23:55</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>FERNANDEZ CASTRO PRESENCIANO</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:25:33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:59:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:25:17</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:23:25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:27:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:30:04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PHE 003E</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5737</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:29:13</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>RUBIO GARCIA LIZ MARIELA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-10-16 11:44:39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TAU 001E</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>55267</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:23:31</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ROJAS FERNANDEZ VICTOR ADRIAN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:27:29</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:07:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:25:17</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:23:25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:27:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:30:04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PHE 003E</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5737</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:29:13</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>RUBIO GARCIA LIZ MARIELA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-10-16 11:44:39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PHE 003E</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5737</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:29:13</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>RUBIO GARCIA LIZ MARIELA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-10-16 11:44:39</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6380</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:12:02</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-10-16 12:28:17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:29:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PEM 016E</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:56:36</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DAVILA CAJO HEBERTH HILDEBRANDO</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:15:34</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-10-16 14:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PEM 016E</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:56:36</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>DAVILA CAJO HEBERTH HILDEBRANDO</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-10-16 13:15:34</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-10-16 14:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-10-16 14:47:55</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PESAJE DE P.T. BARRAS, TUBOS, CPO FORJADO, LLAVES, PT INYECCION, TOCHOS</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>TALLEDO MACEDO LUZ EVELYN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-10-16 14:08:57</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:07:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:15:26</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PESAJE DE P.T. BARRAS, TUBOS, CPO FORJADO, LLAVES, PT INYECCION, TOCHOS</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:18:16</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-10-16 16:04:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6405</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:15:26</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PESAJE DE P.T. BARRAS, TUBOS, CPO FORJADO, LLAVES, PT INYECCION, TOCHOS</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:18:16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-10-16 16:04:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6068</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:58:27</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-10-16 15:55:10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-10-16 16:17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TSA 001E</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>54939</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-10-17 07:57:34</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>CHAVEZ CORTEZ VICTOR ENRIQUE</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-10-17 07:44:52</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-10-17 08:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TAM 002E</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>54390</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:29:39</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SENCARA VALENCIA CESAR ARMANDO</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:26:28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TAM 002E</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>54390</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:29:39</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SENCARA VALENCIA CESAR ARMANDO</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:26:28</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PFR 003E</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6332</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-10-17 08:46:01</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SIESQUEN TABOADA FREDDY</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-10-17 08:41:20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:09:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TSA 001E</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>54939</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:32</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>CHAVEZ CORTEZ VICTOR ENRIQUE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:43</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TAM 002E</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>54390</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:29:39</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SENCARA VALENCIA CESAR ARMANDO</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:26:28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>55294</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:01</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:35</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:48:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TAM 002E</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>54390</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:29:39</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>SENCARA VALENCIA CESAR ARMANDO</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:26:28</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TAM 002E</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>54390</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:15:31</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>SENCARA VALENCIA CESAR ARMANDO</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:16:07</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>55294</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:01</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:35</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:48:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>55294</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:01</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:48:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PFR 003E</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6332</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:51:51</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>AFILADO DE DISCO (FORJA, CORTE TOCHOS)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SIESQUEN TABOADA FREDDY</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:53:11</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PFR 003E</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6332</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:51:51</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>AFILADO DE DISCO (FORJA, CORTE TOCHOS)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>SIESQUEN TABOADA FREDDY</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:53:11</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:50</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:50:16</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:27:48</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:30:21</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:49:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:27:48</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:30:21</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:49:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6068</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:27:56</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>AFILADO DE DISCO (FORJA, CORTE TOCHOS)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:53</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:49:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TAM 012E</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>55303</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:27:48</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>MOSCOSO LOPEZ GILBERT ANGEL</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:30:21</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:49:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PEM 015E</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6406</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:28:53</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>DAVILA CAJO HEBERTH HILDEBRANDO</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025-10-17 09:07:53</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:00:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6068</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:27:56</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>AFILADO DE DISCO (FORJA, CORTE TOCHOS)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:53</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:49:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:10:29</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>LIMPIEZA DE LOGOS, ESTAMPA, MOLDE, MATRIZ, PUNZON, HILERA, HORNOS</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:12:21</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PFR 005E</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>6068</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:20:46</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>CAÑAS CARPIO MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:18:46</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:31:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6197</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:10:29</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>LIMPIEZA DE LOGOS, ESTAMPA, MOLDE, MATRIZ, PUNZON, HILERA, HORNOS</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:12:21</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PFR 003E</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>6332</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:18:22</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CALENTAMIENTO DE MATRIZ, ESTAMPA, MOLDE</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SIESQUEN TABOADA FREDDY</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025-10-17 12:28:14</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025-10-17 13:38:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-10-17 16:51:20</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>PESAJE DE P.T. BARRAS, TUBOS, CPO FORJADO, LLAVES, PT INYECCION, TOCHOS</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>AVALOS PALOMINO RICARDO</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025-10-17 16:54:28</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:08:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TTV 001E</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>55298</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-10-17 20:08:20</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>PURI LA TORRE JOHANA SAYURI</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025-10-17 19:51:54</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025-10-17 20:59:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TTV 004E</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>54536</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-10-17 23:02:09</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SUCLUPE VALDERA JUAN</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025-10-17 21:56:35</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2025-10-17 23:16:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TTV 004E</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>54536</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-10-18 00:39:18</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SUCLUPE VALDERA JUAN</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025-10-18 00:40:16</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2025-10-18 00:50:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>FAL 007E</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>5753</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:11:54</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>LIMPIEZA DE LOGOS, ESTAMPA, MOLDE, MATRIZ, PUNZON, HILERA, HORNOS</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>YANARICO PACOMPIA HIPOLITO LEANDRO</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:00:00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>55293</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:31:12</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025-10-18 05:38:52</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025-10-18 08:09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>55293</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-10-18 10:04:54</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025-10-18 10:06:22</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025-10-18 10:52:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TAM 013E</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>55082</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:45:56</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>ZETA PULACHE NERY EDILBERTO</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:48:08</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TAM 013E</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>55082</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:45:56</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ZETA PULACHE NERY EDILBERTO</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:48:08</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:34:20</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:28:02</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TAM 013E</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>55082</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:45:56</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>ZETA PULACHE NERY EDILBERTO</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:48:08</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>55293</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:14:24</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:09:36</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:34:20</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:28:02</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TAM 013E</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>55082</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:45:56</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ZETA PULACHE NERY EDILBERTO</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:48:08</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>55293</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:14:24</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:09:36</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:34:20</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:00:00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:43:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:34:20</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:28:02</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TAM 013E</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>55082</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:45:56</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>AFILADO DE BROCAS, CUCHILLAS, MACHO, TERRAJA, INSERTOS, FRESAS</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>ZETA PULACHE NERY EDILBERTO</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2025-10-18 09:48:08</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TTV 002E</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>55293</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:14:24</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>MORAN LLAHUACHI NICOLAS</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:09:36</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:42:22</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:00:00</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:43:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>FAL 007E</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>5704</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:55:26</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>EXTRACCION, PESAJE DE RETORNO (VIRUTA, DERRAME, CARCASA, ESCORIA, POLVO, PUNTAS, FLEJES, PEPAS, MENUDO, SCRAPP</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>YANARICO PACOMPIA HIPOLITO LEANDRO</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:58:03</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2025-10-18 12:15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PEM 009E</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>6196</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:42:22</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>REFRIGERIO</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2025-10-18 07:00:00</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2025-10-18 11:43:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TTV 004E</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>54536</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-10-18 14:34:35</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>CONTEO Y PESAJE DE PIEZAS (SOLO SERIADA Y ENSAMBLE)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>CHAVEZ CORTEZ VICTOR ENRIQUE</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2025-10-18 14:35:50</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2025-10-18 14:50:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>codMaquina</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>idNumOrd</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>inicioParada_alex</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>desParada</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>operario</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>inicioParada_scada</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>finParada_scada</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PEM 007E</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>6407</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-10-20 07:23:56</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>AJUSTE Y/O CORRECCION DE MEDIDAS DENTRO DE PRODUCCION (CAMBIO HERRAM., MATRIZ, ESTAMPA, PUNZON, DESMONTAJE)</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>SANDOVAL TORREALBA SANDY WILDEMAR</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2025-10-20 07:00:00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2025-10-20 07:35:52</t>
         </is>
       </c>
     </row>
